--- a/Bloques.xlsx
+++ b/Bloques.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="18960" windowHeight="7485"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18960" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="150">
   <si>
     <t>Tipos de bloques(funciones)</t>
   </si>
@@ -460,6 +460,15 @@
   </si>
   <si>
     <t xml:space="preserve">in1 / in2 </t>
+  </si>
+  <si>
+    <t>Validar</t>
+  </si>
+  <si>
+    <t>Codigo directo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable1 - variable2 </t>
   </si>
 </sst>
 </file>
@@ -892,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
@@ -1402,7 +1411,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -1410,7 +1419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
@@ -1418,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -1426,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
@@ -1434,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -1442,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
@@ -1450,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -1458,7 +1467,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
@@ -1466,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -1474,23 +1483,47 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="5">
         <v>303</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="3">
         <v>153</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
@@ -1498,7 +1531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -1506,7 +1539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
@@ -1514,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
@@ -2251,6 +2284,15 @@
       </c>
       <c r="B119" s="5">
         <v>18</v>
+      </c>
+      <c r="C119" t="s">
+        <v>149</v>
+      </c>
+      <c r="D119" t="s">
+        <v>133</v>
+      </c>
+      <c r="E119" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">

--- a/Bloques.xlsx
+++ b/Bloques.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="153">
   <si>
     <t>Tipos de bloques(funciones)</t>
   </si>
@@ -469,6 +469,15 @@
   </si>
   <si>
     <t xml:space="preserve">variable1 - variable2 </t>
+  </si>
+  <si>
+    <t>output != input</t>
+  </si>
+  <si>
+    <t>"= variable1 * variable2 * ….. * variableN"</t>
+  </si>
+  <si>
+    <t>variable1 + variable2 + ….. + variableN</t>
   </si>
 </sst>
 </file>
@@ -901,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,6 +1106,9 @@
       <c r="B20" s="3">
         <v>55</v>
       </c>
+      <c r="C20" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -1996,6 +2008,9 @@
       <c r="B99" s="5">
         <v>54</v>
       </c>
+      <c r="C99" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
@@ -2068,6 +2083,9 @@
       </c>
       <c r="B104" s="3">
         <v>379</v>
+      </c>
+      <c r="C104" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">

--- a/Bloques.xlsx
+++ b/Bloques.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="152">
   <si>
     <t>Tipos de bloques(funciones)</t>
   </si>
@@ -454,9 +454,6 @@
   </si>
   <si>
     <t>//</t>
-  </si>
-  <si>
-    <t>Revisar Nomenclatura *1 (0,0)</t>
   </si>
   <si>
     <t xml:space="preserve">in1 / in2 </t>
@@ -908,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +917,7 @@
     <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -940,7 +937,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -948,7 +945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -956,7 +953,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -964,7 +961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -972,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -980,7 +977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -988,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -996,7 +993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1004,7 +1001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1012,7 +1009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1031,11 +1028,8 @@
       <c r="F11" t="s">
         <v>142</v>
       </c>
-      <c r="G11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1043,7 +1037,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1051,7 +1045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1059,7 +1053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1067,7 +1061,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1107,7 +1101,7 @@
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
@@ -1279,8 +1273,11 @@
       <c r="D33" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1288,7 +1285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
@@ -1296,7 +1293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1304,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -1312,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -1320,7 +1317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -1328,7 +1325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -1336,7 +1333,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -1344,7 +1341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -1363,11 +1360,8 @@
       <c r="F42" t="s">
         <v>142</v>
       </c>
-      <c r="G42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
@@ -1375,7 +1369,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -1383,7 +1377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
@@ -1391,7 +1385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -1399,7 +1393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
@@ -1407,7 +1401,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -1503,10 +1497,10 @@
         <v>303</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E59" t="s">
         <v>133</v>
@@ -1523,10 +1517,10 @@
         <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
         <v>133</v>
@@ -1567,7 +1561,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
@@ -1575,7 +1569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -1583,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
@@ -1591,7 +1585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -1599,7 +1593,7 @@
         <v>92</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D68" t="s">
         <v>133</v>
@@ -1611,7 +1605,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
@@ -1619,7 +1613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>70</v>
       </c>
@@ -1639,7 +1633,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
@@ -1647,7 +1641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>72</v>
       </c>
@@ -1667,7 +1661,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
@@ -1675,7 +1669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -1683,7 +1677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
@@ -1691,7 +1685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -1699,7 +1693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
@@ -1719,7 +1713,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -1738,11 +1732,8 @@
       <c r="F78" t="s">
         <v>142</v>
       </c>
-      <c r="G78" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
@@ -1761,11 +1752,8 @@
       <c r="F79" t="s">
         <v>142</v>
       </c>
-      <c r="G79" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -2009,7 +1997,7 @@
         <v>54</v>
       </c>
       <c r="C99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2085,7 +2073,7 @@
         <v>379</v>
       </c>
       <c r="C104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,7 +2188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>113</v>
       </c>
@@ -2220,7 +2208,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>114</v>
       </c>
@@ -2228,7 +2216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>115</v>
       </c>
@@ -2236,7 +2224,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>116</v>
       </c>
@@ -2256,7 +2244,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>117</v>
       </c>
@@ -2276,7 +2264,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>118</v>
       </c>
@@ -2296,7 +2284,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>119</v>
       </c>
@@ -2304,7 +2292,7 @@
         <v>18</v>
       </c>
       <c r="C119" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D119" t="s">
         <v>133</v>
@@ -2313,7 +2301,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>120</v>
       </c>
@@ -2333,7 +2321,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>121</v>
       </c>
@@ -2341,7 +2329,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>122</v>
       </c>
@@ -2360,11 +2348,8 @@
       <c r="F122" t="s">
         <v>142</v>
       </c>
-      <c r="G122" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>123</v>
       </c>
@@ -2372,7 +2357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>124</v>
       </c>
@@ -2380,7 +2365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>125</v>
       </c>
@@ -2388,7 +2373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>126</v>
       </c>
@@ -2408,7 +2393,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>127</v>
       </c>
@@ -2428,7 +2413,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>128</v>
       </c>

--- a/Bloques.xlsx
+++ b/Bloques.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="153">
   <si>
     <t>Tipos de bloques(funciones)</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>variable1 + variable2 + ….. + variableN</t>
+  </si>
+  <si>
+    <t>Funcion de multiple salidas con valores pasados</t>
   </si>
 </sst>
 </file>
@@ -907,14 +910,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1536,6 +1539,18 @@
       <c r="B61" s="5">
         <v>26</v>
       </c>
+      <c r="C61" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -2433,23 +2448,29 @@
         <v>144</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B129" s="5">
         <v>185</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B130" s="3">
         <v>134</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>131</v>
       </c>
